--- a/General/Samples Drying Chamber.xlsx
+++ b/General/Samples Drying Chamber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\Estudos\Iniciacao Cientifica\Projetos\Fabricacao de Fibras Opticas Polimericas\Versao 2\Geral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449B179F-3BC0-46C0-9834-9EFE2CB2F03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49A410E-8ECF-47EE-BA00-3058F29332D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="50">
   <si>
     <t>Portugal</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -50,15 +47,6 @@
     <t>Design</t>
   </si>
   <si>
-    <t>Length (mm)</t>
-  </si>
-  <si>
-    <t>External diameter (mm)</t>
-  </si>
-  <si>
-    <t>Thickness (mm)</t>
-  </si>
-  <si>
     <t>Preform</t>
   </si>
   <si>
@@ -92,15 +80,9 @@
     <t>Recess</t>
   </si>
   <si>
-    <t>Suporting holes</t>
-  </si>
-  <si>
     <t>Ratio</t>
   </si>
   <si>
-    <t>Main Holes</t>
-  </si>
-  <si>
     <t>Pin</t>
   </si>
   <si>
@@ -116,18 +98,6 @@
     <t>Entry 45°C</t>
   </si>
   <si>
-    <t>Entry  60°C</t>
-  </si>
-  <si>
-    <t>Entry  90°C</t>
-  </si>
-  <si>
-    <t>Status preform</t>
-  </si>
-  <si>
-    <t>Status ramping</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -143,43 +113,76 @@
     <t>Short</t>
   </si>
   <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
-    <t>Make supporting holes</t>
-  </si>
-  <si>
     <t>Make recess</t>
   </si>
   <si>
-    <t>Draw 2nd stage</t>
-  </si>
-  <si>
     <t>Wait in 90°C</t>
   </si>
   <si>
-    <t>90°C complete</t>
-  </si>
-  <si>
-    <t>90°C incomplete</t>
-  </si>
-  <si>
-    <t>Facing complete</t>
-  </si>
-  <si>
-    <t>Recess complete</t>
-  </si>
-  <si>
-    <t>Preform complete</t>
-  </si>
-  <si>
-    <t>02/15/2024</t>
-  </si>
-  <si>
-    <t>11/17/2023</t>
-  </si>
-  <si>
-    <t>04/26/2024</t>
+    <t>Length [mm]</t>
+  </si>
+  <si>
+    <t>External diameter [mm]</t>
+  </si>
+  <si>
+    <t>Thickness [mm]</t>
+  </si>
+  <si>
+    <t>Ramping status</t>
+  </si>
+  <si>
+    <t>Preform status</t>
+  </si>
+  <si>
+    <t>Entry 90°C</t>
+  </si>
+  <si>
+    <t>Entry 60°C</t>
+  </si>
+  <si>
+    <t>02/15/2024-12:00</t>
+  </si>
+  <si>
+    <t>11/17/2023-12:00</t>
+  </si>
+  <si>
+    <t>02/12/2024-12:00</t>
+  </si>
+  <si>
+    <t>04/26/2024-12:00</t>
+  </si>
+  <si>
+    <t>Main drilling</t>
+  </si>
+  <si>
+    <t>Facing completed</t>
+  </si>
+  <si>
+    <t>Recess completed</t>
+  </si>
+  <si>
+    <t>Preform completed</t>
+  </si>
+  <si>
+    <t>90°C completed</t>
+  </si>
+  <si>
+    <t>90°C incompleted</t>
+  </si>
+  <si>
+    <t>Pull 2nd stage</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Support drilling</t>
+  </si>
+  <si>
+    <t>Do support drilling</t>
+  </si>
+  <si>
+    <t>Incompleted</t>
   </si>
 </sst>
 </file>
@@ -616,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,11 +641,12 @@
     <col min="14" max="14" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -652,81 +656,81 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="R1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>90</v>
@@ -735,36 +739,36 @@
         <v>70</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>90</v>
@@ -773,36 +777,36 @@
         <v>70</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="V3" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>90</v>
@@ -811,36 +815,36 @@
         <v>70</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="V4" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>90</v>
@@ -849,36 +853,36 @@
         <v>70</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="V5" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>90</v>
@@ -887,39 +891,39 @@
         <v>70</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
         <v>90</v>
@@ -928,39 +932,39 @@
         <v>70</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1">
         <v>90</v>
@@ -969,39 +973,39 @@
         <v>70</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1">
         <v>90</v>
@@ -1010,39 +1014,39 @@
         <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1">
         <v>90</v>
@@ -1051,39 +1055,39 @@
         <v>70</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1">
         <v>90</v>
@@ -1092,39 +1096,39 @@
         <v>70</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1">
         <v>90</v>
@@ -1133,266 +1137,266 @@
         <v>70</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1">
         <v>440</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="W13" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E14" s="1">
         <v>350</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="W14" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
         <v>390</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="W15" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1">
         <v>420</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="W16" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
         <v>480</v>
@@ -1404,33 +1408,33 @@
         <v>1.85</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S17" s="8">
-        <v>45628</v>
+        <v>25</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1">
         <v>480</v>
@@ -1442,33 +1446,33 @@
         <v>1.85</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1">
         <v>480</v>
@@ -1480,33 +1484,33 @@
         <v>1.85</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1">
         <v>480</v>
@@ -1518,33 +1522,33 @@
         <v>1.85</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1">
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1">
         <v>480</v>
@@ -1556,22 +1560,22 @@
         <v>1.85</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
